--- a/Finflux Automation Excels/Client/5014-CreateEmiPack-Submit-ChangePlanInApprovePage-Verify.xlsx
+++ b/Finflux Automation Excels/Client/5014-CreateEmiPack-Submit-ChangePlanInApprovePage-Verify.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Center" sheetId="1" r:id="rId1"/>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,23 +980,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>42005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42030</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4">
         <v>42005</v>
@@ -1004,18 +1004,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4">
-        <v>42030</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4">
-        <v>42005</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
